--- a/tests/data/template.xlsx
+++ b/tests/data/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ketainian/api4excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ketainian/api4excel/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B9252CF-1B41-4D4E-8795-BD3CAF5E00D6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C8C2C-D3E9-ED49-8118-AB1E5C1DE6D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{99D80772-6AA8-7F45-A793-E813BFFE451B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{99D80772-6AA8-7F45-A793-E813BFFE451B}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,31 +231,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -575,7 +581,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -589,54 +595,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" ht="20">
       <c r="A3" s="1">
@@ -645,10 +651,10 @@
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -671,10 +677,10 @@
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -697,16 +703,16 @@
       <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1">
@@ -837,9 +843,12 @@
       <c r="J15" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
